--- a/resource/Book1.xlsx
+++ b/resource/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Sagar</t>
   </si>
@@ -42,6 +42,54 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Mobile2</t>
+  </si>
+  <si>
+    <t>Mobile1</t>
+  </si>
+  <si>
+    <t>Mobile3</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -86,9 +134,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,77 +420,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="1"/>
+    <col min="13" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>26</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>1991</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1">
-        <v>9595507502</v>
-      </c>
-      <c r="N1">
-        <v>9595507502</v>
-      </c>
-      <c r="O1">
-        <v>9595507502</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1991</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3">
+        <v>9595507502</v>
+      </c>
+      <c r="N2" s="3">
+        <v>9595507502</v>
+      </c>
+      <c r="O2" s="3">
+        <v>9595507502</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/Book1.xlsx
+++ b/resource/Book1.xlsx
@@ -96,18 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,18 +122,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +423,9 @@
     <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.140625" style="1"/>
-    <col min="13" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -488,40 +480,40 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>26</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1991</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>21</v>
       </c>
       <c r="M2" s="3">
@@ -530,21 +522,12 @@
       <c r="N2" s="3">
         <v>9595507502</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>9595507502</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
